--- a/DATASET_INFO.xlsx
+++ b/DATASET_INFO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\EEG_ML_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A18FA1-C4C3-43E7-B5D2-5F1D492D0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF00D0-8D71-4180-93C2-D03A017162B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>HBN_EO_EC</t>
   </si>
@@ -579,7 +579,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>

--- a/DATASET_INFO.xlsx
+++ b/DATASET_INFO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\EEG_ML_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF00D0-8D71-4180-93C2-D03A017162B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF489F6-F024-48D7-A0B3-96A5E9F9364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>HBN_EO_EC</t>
   </si>
@@ -95,9 +95,6 @@
     <t>10_20</t>
   </si>
   <si>
-    <t>uV</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -149,15 +146,9 @@
     <t>samp_rate</t>
   </si>
   <si>
-    <t>nchan</t>
-  </si>
-  <si>
     <t>select_subjects</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>EEG_Alz</t>
   </si>
   <si>
@@ -216,6 +207,9 @@
   </si>
   <si>
     <t>EXG1,EXG2,EXG3,EXG4,EXG5,EXG6,EXG7,EXG8</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -251,16 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CF9C1-AB95-4E19-ACD5-8355018BF3EB}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,334 +583,292 @@
     <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>500</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>500</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>500</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
-        <v>500</v>
-      </c>
-      <c r="I2" s="2">
-        <v>129</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>160</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2">
-        <v>500</v>
-      </c>
-      <c r="I3" s="2">
-        <v>61</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="2">
-        <v>64</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2500</v>
-      </c>
-      <c r="I5" s="2">
-        <v>62</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <v>500</v>
-      </c>
-      <c r="I6" s="2">
-        <v>68</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>129</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2">
-        <v>160</v>
-      </c>
-      <c r="I8" s="2">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="2">
-        <v>127</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -927,32 +876,28 @@
       <c r="H10" s="1">
         <v>500</v>
       </c>
-      <c r="I10" s="1">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -960,137 +905,117 @@
       <c r="H11" s="1">
         <v>1000</v>
       </c>
-      <c r="I11" s="1">
-        <v>61</v>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
         <v>512</v>
       </c>
-      <c r="I12" s="1">
-        <v>32</v>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1">
         <v>256</v>
       </c>
-      <c r="I13" s="1">
-        <v>64</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1">
         <v>500</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1102,17 +1027,13 @@
         <v>16</v>
       </c>
       <c r="H15" s="1">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATASET_INFO.xlsx
+++ b/DATASET_INFO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF489F6-F024-48D7-A0B3-96A5E9F9364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641B24D-1897-4150-A946-3D92F81B2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DATASET_INFO.xlsx
+++ b/DATASET_INFO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Documenti\05_PhD\1°_anno\EEG_Prep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641B24D-1897-4150-A946-3D92F81B2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA868BDA-11C1-4642-9364-E3FEBDE6528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EAAB731-F0A7-491B-A398-111465ADD565}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>HBN_EO_EC</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>change_arch</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CF9C1-AB95-4E19-ACD5-8355018BF3EB}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,9 +589,10 @@
     <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -622,8 +626,11 @@
       <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -651,8 +658,11 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -678,8 +688,11 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -705,8 +718,11 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -734,8 +750,11 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -767,8 +786,11 @@
       <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -796,8 +818,11 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -823,8 +848,11 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -852,8 +880,11 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -881,8 +912,11 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -914,8 +948,11 @@
       <c r="K11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -949,8 +986,11 @@
       <c r="K12" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -978,8 +1018,11 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1007,8 +1050,11 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1034,6 +1080,9 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
